--- a/data/distritos_propuesto_tiempo.xlsx
+++ b/data/distritos_propuesto_tiempo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F639"/>
+  <dimension ref="A1:F645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8707,7 +8707,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>ALTO TRUJILLO</t>
+          <t xml:space="preserve">ALTO TRUJILLO </t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>EL MILAGRO</t>
+          <t xml:space="preserve"> EL MILAGRO</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>ALTO TRUJILLO</t>
+          <t xml:space="preserve">ALTO TRUJILLO </t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>EL MILAGRO</t>
+          <t xml:space="preserve"> EL MILAGRO</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -9411,7 +9411,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>LIVITACA</t>
+          <t xml:space="preserve">LIVITACA </t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -9443,7 +9443,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>VILILLE</t>
+          <t xml:space="preserve"> VILILLE</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>ALTO TRUJILLO</t>
+          <t xml:space="preserve">ALTO TRUJILLO </t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>EL MILAGRO</t>
+          <t xml:space="preserve"> EL MILAGRO</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>ALTO TRUJILLO</t>
+          <t xml:space="preserve">ALTO TRUJILLO </t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -10147,7 +10147,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>EL MILAGRO</t>
+          <t xml:space="preserve"> EL MILAGRO</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>ALTO TRUJILLO</t>
+          <t xml:space="preserve">ALTO TRUJILLO </t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>EL MILAGRO</t>
+          <t xml:space="preserve"> EL MILAGRO</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -19171,7 +19171,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>NAN</t>
+          <t>CERCADO DE JULIACA</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -19188,22 +19188,22 @@
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
         <is>
-          <t>07486/2020-CR</t>
+          <t>07481/2020-CR</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>SAN ROMAN</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>PARACHIQUE-LA BOCANA</t>
+          <t>LA CAPILLA</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
@@ -19220,22 +19220,22 @@
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
         <is>
-          <t>07487/2020-CR</t>
+          <t>07481/2020-CR</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>SAN ROMAN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>RUMIPITE</t>
+          <t>TAPARACHI</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -19252,22 +19252,22 @@
     <row r="589">
       <c r="A589" s="1" t="inlineStr">
         <is>
-          <t>07510/2020-CR</t>
+          <t>07486/2020-CR</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>BUENA GANA</t>
+          <t>PARACHIQUE-LA BOCANA</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
@@ -19284,22 +19284,22 @@
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
         <is>
-          <t>07511/2020-CR</t>
+          <t>07487/2020-CR</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>INCA GARCILASO DE LA VEGA</t>
+          <t>RUMIPITE</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
@@ -19316,12 +19316,12 @@
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
         <is>
-          <t>07536/2020-CR</t>
+          <t>07510/2020-CR</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -19331,7 +19331,7 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>BUENA LIBRA - VIZCATAN</t>
+          <t>BUENA GANA</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
@@ -19348,22 +19348,22 @@
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
         <is>
-          <t>07562/2020-CR</t>
+          <t>07511/2020-CR</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>CHINCHEROS</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>APURIMAC</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>PISCOBAMBA</t>
+          <t>INCA GARCILASO DE LA VEGA</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
@@ -19380,22 +19380,22 @@
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
         <is>
-          <t>07586/2020-CR</t>
+          <t>07536/2020-CR</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>ALTO CHIRA</t>
+          <t>BUENA LIBRA - VIZCATAN</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -19412,22 +19412,22 @@
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
         <is>
-          <t>07645/2020-CR</t>
+          <t>07562/2020-CR</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>UTCUBAMBA</t>
+          <t>CHINCHEROS</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>AMAZONAS</t>
+          <t>APURIMAC</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>JOSE OLAYA</t>
+          <t>PISCOBAMBA</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -19444,22 +19444,22 @@
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
         <is>
-          <t>07668/2020-CR</t>
+          <t>07586/2020-CR</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>CONDORCANQUI</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>AMAZONAS</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>WINCHINKIM</t>
+          <t>ALTO CHIRA</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -19476,22 +19476,22 @@
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
         <is>
-          <t>07695/2020-PE</t>
+          <t>07645/2020-CR</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>UTCUBAMBA</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>AMAZONAS</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>HUAYCAN</t>
+          <t>JOSE OLAYA</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -19508,22 +19508,22 @@
     <row r="597">
       <c r="A597" s="1" t="inlineStr">
         <is>
-          <t>07702/2020-CR</t>
+          <t>07668/2020-CR</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>JAEN</t>
+          <t>CONDORCANQUI</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>AMAZONAS</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>FILA ALTA</t>
+          <t>WINCHINKIM</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -19540,22 +19540,22 @@
     <row r="598">
       <c r="A598" s="1" t="inlineStr">
         <is>
-          <t>07704/2020-CR</t>
+          <t>07695/2020-PE</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>COTABAMBAS</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>APURIMAC</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>MARKANSAYA</t>
+          <t>HUAYCAN</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -19572,22 +19572,22 @@
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
         <is>
-          <t>07706/2020-CR</t>
+          <t>07702/2020-CR</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>CHINCHEROS</t>
+          <t>JAEN</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>APURIMAC</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>MUNAPUCRO</t>
+          <t>FILA ALTA</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -19604,22 +19604,22 @@
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
         <is>
-          <t>07707/2020-CR</t>
+          <t>07704/2020-CR</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>SECHURA</t>
+          <t>COTABAMBAS</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>APURIMAC</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>LETIRA - BECARA</t>
+          <t>MARKANSAYA</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -19636,22 +19636,22 @@
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
         <is>
-          <t>07712/2020-CR</t>
+          <t>07706/2020-CR</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>CANCHIS</t>
+          <t>CHINCHEROS</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>APURIMAC</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>OCCOBAMBA</t>
+          <t>MUNAPUCRO</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
@@ -19668,22 +19668,22 @@
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 07720/2020-CR</t>
+          <t>07707/2020-CR</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>SECHURA</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>INCA GARCILASO DE LA VEGA</t>
+          <t>LETIRA - BECARA</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -19700,22 +19700,22 @@
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
         <is>
-          <t>07723/2020-CR</t>
+          <t>07712/2020-CR</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>SATIPO</t>
+          <t>CANCHIS</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>RIO ENE</t>
+          <t>OCCOBAMBA</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -19732,22 +19732,22 @@
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
         <is>
-          <t>07728/2020-CR</t>
+          <t xml:space="preserve"> 07720/2020-CR</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>ALTO PUNO</t>
+          <t>INCA GARCILASO DE LA VEGA</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -19764,7 +19764,7 @@
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
         <is>
-          <t>07738/2020-CR</t>
+          <t>07723/2020-CR</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -19796,22 +19796,22 @@
     <row r="606">
       <c r="A606" s="1" t="inlineStr">
         <is>
-          <t>07740/2020-CR</t>
+          <t>07728/2020-CR</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>ANDAHUAYLAS</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>APURIMAC</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>LLIUPAPUQUIO</t>
+          <t>ALTO PUNO</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -19828,22 +19828,22 @@
     <row r="607">
       <c r="A607" s="1" t="inlineStr">
         <is>
-          <t>07751/2020-CR</t>
+          <t>07738/2020-CR</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>SATIPO</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>SAN MARTIN DE PORRES</t>
+          <t>RIO ENE</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -19860,22 +19860,22 @@
     <row r="608">
       <c r="A608" s="1" t="inlineStr">
         <is>
-          <t>07756/2020-CR</t>
+          <t>07740/2020-CR</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>ANDAHUAYLAS</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>APURIMAC</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>CERCADO DE LIMA</t>
+          <t>LLIUPAPUQUIO</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -19892,22 +19892,22 @@
     <row r="609">
       <c r="A609" s="1" t="inlineStr">
         <is>
-          <t>07762/2020-CR</t>
+          <t>07751/2020-CR</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>POMABAMBA</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>ANCASH</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>HUANCHAYLLO</t>
+          <t>SAN MARTIN DE PORRES</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
@@ -19924,22 +19924,22 @@
     <row r="610">
       <c r="A610" s="1" t="inlineStr">
         <is>
-          <t>07768/2020-CR</t>
+          <t>07756/2020-CR</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>ESPINAR</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>PUENTE CENTRAL APACHACCO</t>
+          <t>CERCADO DE LIMA</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -19956,22 +19956,22 @@
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
         <is>
-          <t>07777/2020-CR</t>
+          <t>07762/2020-CR</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>POMABAMBA</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>ANCASH</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE MACHENTE</t>
+          <t>HUANCHAYLLO</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -19988,22 +19988,22 @@
     <row r="612">
       <c r="A612" s="1" t="inlineStr">
         <is>
-          <t>07790/2020-CR</t>
+          <t>07768/2020-CR</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>PACHITEA</t>
+          <t>ESPINAR</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>CHINCHAVITO</t>
+          <t>PUENTE CENTRAL APACHACCO</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -20020,22 +20020,22 @@
     <row r="613">
       <c r="A613" s="1" t="inlineStr">
         <is>
-          <t>07836/2020-CR</t>
+          <t>07777/2020-CR</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>BELLAVISTA</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>HUINGOYACU</t>
+          <t>SANTA CRUZ DE MACHENTE</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -20052,22 +20052,22 @@
     <row r="614">
       <c r="A614" s="1" t="inlineStr">
         <is>
-          <t>07843/2020-CR</t>
+          <t>07790/2020-CR</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>VILCAS HUAMAN</t>
+          <t>PACHITEA</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>SAN ANTONIO DE COCHA</t>
+          <t>CHINCHAVITO</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -20084,22 +20084,22 @@
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
         <is>
-          <t>07866/2020-CR</t>
+          <t>07836/2020-CR</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>CARABAYA</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>SAN MARTIN</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>VALENTIN DEMETRIO PANIAGUA CORAZAO</t>
+          <t>HUINGOYACU</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
@@ -20116,12 +20116,12 @@
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
         <is>
-          <t>07871/2020-CR</t>
+          <t>07843/2020-CR</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>VILCAS HUAMAN</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -20131,7 +20131,7 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>GLORIA SOL NACIENTE</t>
+          <t>SAN ANTONIO DE COCHA</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
@@ -20148,22 +20148,22 @@
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
         <is>
-          <t>07877/2020-CR</t>
+          <t>07866/2020-CR</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>HUAMANGA</t>
+          <t>CARABAYA</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>MANALLASACC</t>
+          <t>VALENTIN DEMETRIO PANIAGUA CORAZAO</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -20180,22 +20180,22 @@
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
         <is>
-          <t>07891/2020-CR</t>
+          <t>07871/2020-CR</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>ALTO AMAZONAS</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>SHANUSI</t>
+          <t>GLORIA SOL NACIENTE</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -20212,22 +20212,22 @@
     <row r="619">
       <c r="A619" s="1" t="inlineStr">
         <is>
-          <t>07899/2020-CR</t>
+          <t>07877/2020-CR</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>TAMBOPATA</t>
+          <t>HUAMANGA</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>MADRE DE DIOS</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>EL TRIUNFO</t>
+          <t>MANALLASACC</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
@@ -20244,22 +20244,22 @@
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
         <is>
-          <t>07925/2020-CR</t>
+          <t>07891/2020-CR</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>PARINACOCHAS</t>
+          <t>ALTO AMAZONAS</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>LORETO</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>RELAVE</t>
+          <t>SHANUSI</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -20276,22 +20276,22 @@
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
         <is>
-          <t>07947/2020-CR</t>
+          <t>07899/2020-CR</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>VIRU</t>
+          <t>TAMBOPATA</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>MADRE DE DIOS</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>NUEVO CHAO</t>
+          <t>EL TRIUNFO</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
@@ -20308,22 +20308,22 @@
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
         <is>
-          <t>07962/2020-CR</t>
+          <t>07925/2020-CR</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>TAYACAJA</t>
+          <t>PARINACOCHAS</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>HUANCAVELICA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE HUALLHUA</t>
+          <t>RELAVE</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
@@ -20340,22 +20340,22 @@
     <row r="623">
       <c r="A623" s="1" t="inlineStr">
         <is>
-          <t>07968/2020-CR</t>
+          <t>07947/2020-CR</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>HUAMANGA</t>
+          <t>VIRU</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>CHUMBES</t>
+          <t>NUEVO CHAO</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
@@ -20372,22 +20372,22 @@
     <row r="624">
       <c r="A624" s="1" t="inlineStr">
         <is>
-          <t>07974/2020-CR</t>
+          <t>07962/2020-CR</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>TAYACAJA</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>HUANCAVELICA</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>VALLE DE MAYUNMARKA</t>
+          <t>SAN MIGUEL DE HUALLHUA</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -20404,12 +20404,12 @@
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
         <is>
-          <t>07975/2020-CR</t>
+          <t>07968/2020-CR</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>HUANTA</t>
+          <t>HUAMANGA</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -20419,7 +20419,7 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>ICHICHA</t>
+          <t>CHUMBES</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
@@ -20436,22 +20436,22 @@
     <row r="626">
       <c r="A626" s="1" t="inlineStr">
         <is>
-          <t>07982/2020-CR</t>
+          <t>07974/2020-CR</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>SAN ROMAN</t>
+          <t>LA MAR</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>NAN</t>
+          <t>VALLE DE MAYUNMARKA</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
@@ -20468,22 +20468,22 @@
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
         <is>
-          <t>07985/2020-CR</t>
+          <t>07975/2020-CR</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>TACNA</t>
+          <t>HUANTA</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>TACNA</t>
+          <t>AYACUCHO</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>VINANI</t>
+          <t>ICHICHA</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
@@ -20500,22 +20500,22 @@
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
         <is>
-          <t>07986/2020-CR</t>
+          <t>07982/2020-CR</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>TACNA</t>
+          <t>SAN ROMAN</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>TACNA</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>BOCA DEL RIO</t>
+          <t>CERCADO DE JULIACA</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
@@ -20532,22 +20532,22 @@
     <row r="629">
       <c r="A629" s="1" t="inlineStr">
         <is>
-          <t>08026/2020-CR</t>
+          <t>07982/2020-CR</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>COTABAMBAS</t>
+          <t>SAN ROMAN</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>APURIMAC</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>VICTOR RAUL HAYA DE LA TORRE</t>
+          <t>LA CAPILLA</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
@@ -20564,22 +20564,22 @@
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
         <is>
-          <t>08028/2020-CR</t>
+          <t>07982/2020-CR</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>SAN IGNACIO</t>
+          <t>SAN ROMAN</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>ALTO DORADO</t>
+          <t>TAPARACHI</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
@@ -20596,22 +20596,22 @@
     <row r="631">
       <c r="A631" s="1" t="inlineStr">
         <is>
-          <t>08040/2020-CR</t>
+          <t>07985/2020-CR</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>AZANGARO</t>
+          <t>TACNA</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>TACNA</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>SANTIAGO  DE PUPUJA</t>
+          <t>VINANI</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
@@ -20628,22 +20628,22 @@
     <row r="632">
       <c r="A632" s="1" t="inlineStr">
         <is>
-          <t>08043/2020-CR</t>
+          <t>07986/2020-CR</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>ATALAYA</t>
+          <t>TACNA</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>TACNA</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>MALDONADILLO</t>
+          <t>BOCA DEL RIO</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
@@ -20660,22 +20660,22 @@
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
         <is>
-          <t>08047/2020-CR</t>
+          <t>08026/2020-CR</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>COTABAMBAS</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>APURIMAC</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE NAUYAN</t>
+          <t>VICTOR RAUL HAYA DE LA TORRE</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
@@ -20692,22 +20692,22 @@
     <row r="634">
       <c r="A634" s="1" t="inlineStr">
         <is>
-          <t>08033/2020-CR</t>
+          <t>08028/2020-CR</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>SAN ROMAN</t>
+          <t>SAN IGNACIO</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>PUNO</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>NAN</t>
+          <t>ALTO DORADO</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -20724,12 +20724,12 @@
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
         <is>
-          <t>08089/2020-CR</t>
+          <t>08040/2020-CR</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>CARABAYA</t>
+          <t>AZANGARO</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -20739,7 +20739,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>AZAROMA</t>
+          <t>SANTIAGO  DE PUPUJA</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
@@ -20756,22 +20756,22 @@
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
         <is>
-          <t>08092/2020-CR</t>
+          <t>08043/2020-CR</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>CUTERVO</t>
+          <t>ATALAYA</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>UCAYALI</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>SINCHIMACHE</t>
+          <t>MALDONADILLO</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -20788,22 +20788,22 @@
     <row r="637">
       <c r="A637" s="1" t="inlineStr">
         <is>
-          <t>08098/2020-CR</t>
+          <t>08047/2020-CR</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>HUAMANGA</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>CCOCHAPAMPA</t>
+          <t>SANTO DOMINGO DE NAUYAN</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
@@ -20820,22 +20820,22 @@
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
         <is>
-          <t>07360/2020-CR	1</t>
+          <t>08033/2020-CR</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>LA MAR</t>
+          <t>SAN ROMAN</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>MAYUNMARKA DE ANCO</t>
+          <t>CERCADO DE JULIACA</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -20852,30 +20852,222 @@
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
         <is>
+          <t>08033/2020-CR</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>SAN ROMAN</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>PUNO</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>LA CAPILLA</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>08033/2020-CR</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>SAN ROMAN</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>PUNO</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>TAPARACHI</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>08089/2020-CR</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>CARABAYA</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>PUNO</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>AZAROMA</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>08092/2020-CR</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>CUTERVO</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>SINCHIMACHE</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>08098/2020-CR</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>HUAMANGA</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>AYACUCHO</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>CCOCHAPAMPA</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>07360/2020-CR	1</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>LA MAR</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>AYACUCHO</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>MAYUNMARKA DE ANCO</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
           <t>07367/2020-CR</t>
         </is>
       </c>
-      <c r="B639" t="inlineStr">
+      <c r="B645" t="inlineStr">
         <is>
           <t>ABANCAY</t>
         </is>
       </c>
-      <c r="C639" t="inlineStr">
+      <c r="C645" t="inlineStr">
         <is>
           <t>APURIMAC</t>
         </is>
       </c>
-      <c r="D639" t="inlineStr">
+      <c r="D645" t="inlineStr">
         <is>
           <t>SAYWITE</t>
         </is>
       </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>2020-2021</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
         <is>
           <t>No</t>
         </is>
